--- a/paper_implementation_scedule.xlsx
+++ b/paper_implementation_scedule.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper_implement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9918CEF0-4BBF-4409-A624-F0E2A430F04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28200" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{64C19E64-F562-44B4-BA80-F803900C4563}"/>
+    <workbookView xWindow="-28200" yWindow="1395" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>毓凱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,12 +70,32 @@
   </si>
   <si>
     <t>iIM-CNN</t>
+  </si>
+  <si>
+    <t>彥承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm6A-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citation Paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechine learning:1.M6AMRFS 2.iMRM      CNN:iN6-Methy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechine learning:1.iDNA6mA-PseKNC 2.csDMA 3.6mA-Finder     CNN:ilM-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -445,103 +464,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA388804-7A81-4BD0-B4B7-4841817EAB2D}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="69.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>44657</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44658</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44659</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44660</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44661</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44662</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44663</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/paper_implementation_scedule.xlsx
+++ b/paper_implementation_scedule.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>毓凱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DNA6mA-MINT</t>
   </si>
   <si>
@@ -80,15 +76,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Citation Paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mechine learning:1.M6AMRFS 2.iMRM      CNN:iN6-Methy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mechine learning:1.iDNA6mA-PseKNC 2.csDMA 3.6mA-Finder     CNN:ilM-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechine learning:1.M6AMRFS 2.iMRM 3.RFAthM6A     CNN:iN6-Methy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +472,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -480,10 +484,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,10 +498,13 @@
         <v>44651</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -505,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,10 +529,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/paper_implementation_scedule.xlsx
+++ b/paper_implementation_scedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper_implement\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242582AA-C855-4AF1-BCD0-6CBE59E4EC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28200" yWindow="1395" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>毓凱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mechine learning:1.iDNA6mA-PseKNC 2.csDMA 3.6mA-Finder     CNN:ilM-CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,14 +79,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mechine learning:1.M6AMRFS 2.iMRM 3.RFAthM6A     CNN:iN6-Methy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple species : H.sapiens:2260(41nt),M.musculus 1450(41nt),S.cerevisiae:2614(51nt),A.thaliana:4200(101nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine learning:M6AMRFS,iMRM,RFAthM6A     Deep-learning:iN6-Methy(CNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine learning:iDNA6mA-PseKNC ,csDMA,6mA-Finder     Deep-learning:ilM-CNN(CNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine learning:M6APred-EL, RFAthM6A , iRNA(m6A)-PseDNC , iRNA-PseColl ,iRNA-3typeA , DeepM6ASeq , SRAMP , RNAMethPre , BERMP   Deep-learning:DeepM6ASeq(lstm),BERMP(CNN+RNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple species : H.sapiens:2260(41nt),M.musculus 1450(41nt),S.cerevisiae:2614(51nt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -468,32 +474,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="69.125" customWidth="1"/>
+    <col min="4" max="4" width="88.125" customWidth="1"/>
+    <col min="5" max="5" width="87.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44651</v>
       </c>
@@ -504,10 +514,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44657</v>
       </c>
@@ -518,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44664</v>
       </c>
@@ -531,8 +544,14 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44671</v>
       </c>
@@ -543,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44678</v>
       </c>
@@ -554,7 +573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44685</v>
       </c>
@@ -565,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44692</v>
       </c>
@@ -576,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44699</v>
       </c>

--- a/paper_implementation_scedule.xlsx
+++ b/paper_implementation_scedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper_implement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242582AA-C855-4AF1-BCD0-6CBE59E4EC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -87,25 +86,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Machine learning:M6AMRFS,iMRM,RFAthM6A     Deep-learning:iN6-Methy(CNN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine learning:iDNA6mA-PseKNC ,csDMA,6mA-Finder     Deep-learning:ilM-CNN(CNN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine learning:M6APred-EL, RFAthM6A , iRNA(m6A)-PseDNC , iRNA-PseColl ,iRNA-3typeA , DeepM6ASeq , SRAMP , RNAMethPre , BERMP   Deep-learning:DeepM6ASeq(lstm),BERMP(CNN+RNN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Multiple species : H.sapiens:2260(41nt),M.musculus 1450(41nt),S.cerevisiae:2614(51nt)</t>
+  </si>
+  <si>
+    <t>Machine learning:
+M6APred-EL(Ensemble Learning),https://www.sciencedirect.com/science/article/pii/S2162253118301446
+RFAthM6A (random forest), https://link.springer.com/article/10.1007/s11103-018-0698-9
+iRNA(m6A)-PseDNC (SVM), https://www.sciencedirect.com/science/article/pii/S0003269715003978
+iRNA-PseColl(SVM),https://www.sciencedirect.com/science/article/pii/S2162253117301464
+iRNA-3typeA(SVM), https://www.sciencedirect.com/science/article/pii/S216225311830043X
+SRAMP(KNN) , https://academic.oup.com/nar/article/44/10/e91/2516056?login=true
+RNAMethPre(SVM) , https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0162707
+BERMP (random forest),https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6216033/  
+pRNAm-PC(SVM),https://www.sciencedirect.com/science/article/pii/S0003269715005795
+M6AMRFS(XGBoost),https://www.frontiersin.org/articles/10.3389/fgene.2018.00495/full
+MethyRNA(SVM),https://www.tandfonline.com/doi/full/10.1080/07391102.2016.1157761
+Deep-learning:
+DeepM6ASeq(lstm+CNN),https://link.springer.com/article/10.1186/s12859-018-2516-4
+BERMP(CNN+RNN),https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6216033/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine learning:
+iDNA6mA-PseKNC ,
+csDMA,
+6mA-Finder     
+Deep-learning:
+ilM-CNN(CNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine learning:
+M6AMRFS(XGBoost),https://www.frontiersin.org/articles/10.3389/fgene.2018.00495/full
+iMRM(XGBoost),https://academic.oup.com/bioinformatics/article/36/11/3336/5781956?login=true
+RFAthM6A(random forest), https://link.springer.com/article/10.1007/s11103-018-0698-9
+Deep-learning:
+iN6-Methy(CNN),https://www.sciencedirect.com/science/article/pii/S0169743919300838#bib103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -151,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,6 +183,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -503,7 +529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44651</v>
       </c>
@@ -513,14 +539,14 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44657</v>
       </c>
@@ -530,11 +556,11 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="264" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44664</v>
       </c>
@@ -544,11 +570,11 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/paper_implementation_scedule.xlsx
+++ b/paper_implementation_scedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳毓凱\Desktop\碩士\paper_implement\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB6BA5E-F2D3-4B4B-8037-CA158FF08874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>毓凱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,11 +125,15 @@
 iN6-Methy(CNN),https://www.sciencedirect.com/science/article/pii/S0169743919300838#bib103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Multiple species : M. musculus(41bp):1934P 1934N, Rice(41bp):880P 880N, Combined-species (41bp):2768P 2716N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -500,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -559,6 +564,9 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="264" x14ac:dyDescent="0.25">
       <c r="A4" s="1">

--- a/paper_implementation_scedule.xlsx
+++ b/paper_implementation_scedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳毓凱\Desktop\碩士\paper_implement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB6BA5E-F2D3-4B4B-8037-CA158FF08874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E541EFEF-043A-4ED1-80BC-36D8A23869E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,15 +109,6 @@
   </si>
   <si>
     <t>Machine learning:
-iDNA6mA-PseKNC ,
-csDMA,
-6mA-Finder     
-Deep-learning:
-ilM-CNN(CNN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine learning:
 M6AMRFS(XGBoost),https://www.frontiersin.org/articles/10.3389/fgene.2018.00495/full
 iMRM(XGBoost),https://academic.oup.com/bioinformatics/article/36/11/3336/5781956?login=true
 RFAthM6A(random forest), https://link.springer.com/article/10.1007/s11103-018-0698-9
@@ -127,6 +118,15 @@
   </si>
   <si>
     <t>Multiple species : M. musculus(41bp):1934P 1934N, Rice(41bp):880P 880N, Combined-species (41bp):2768P 2716N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine learning:
+iDNA6mA-PseKNC ,https://pubmed.ncbi.nlm.nih.gov/29360500/
+csDMA,https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6739324/
+6mA-Finder, https://academic.oup.com/bioinformatics/article/36/10/3257/5753942
+Deep-learning:
+ilM-CNN(CNN), https://www.researchgate.net/publication/337875993_iIM-CNN_Intelligent_Identifier_of_6mA_Sites_on_Different_Species_by_Using_Convolution_Neural_Network</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="132" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44657</v>
       </c>
@@ -562,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="264" x14ac:dyDescent="0.25">

--- a/paper_implementation_scedule.xlsx
+++ b/paper_implementation_scedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳毓凱\Desktop\碩士\paper_implement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E541EFEF-043A-4ED1-80BC-36D8A23869E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>毓凱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,28 +34,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DNA6mA-MINT</t>
-  </si>
-  <si>
     <t>iN6-Methyl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i6mA-stack</t>
-  </si>
-  <si>
     <t>SpineNet6mA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iDNA6mA</t>
-  </si>
-  <si>
     <t>i6mA-DNC</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iIM-CNN</t>
   </si>
   <si>
     <t>彥承</t>
@@ -129,11 +116,23 @@
 ilM-CNN(CNN), https://www.researchgate.net/publication/337875993_iIM-CNN_Intelligent_Identifier_of_6mA_Sites_on_Different_Species_by_Using_Convolution_Neural_Network</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DNA6mA-MINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDNA6mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iIM-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -505,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -522,16 +521,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
@@ -539,16 +538,16 @@
         <v>44651</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="132" x14ac:dyDescent="0.25">
@@ -559,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="264" x14ac:dyDescent="0.25">
@@ -576,13 +575,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -593,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,19 +625,12 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44699</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/paper_implementation_scedule.xlsx
+++ b/paper_implementation_scedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳毓凱\Desktop\碩士\paper_implement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper_implement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE6FC10-B2E1-4F37-8D0A-D26A86DFFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F846FC87-00DE-4E76-AEDD-FAF23D4B949D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,23 +35,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iN6-Methyl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpineNet6mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-DNC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彥承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm6A-CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,6 +124,22 @@
 Prediction of RNA-protein sequence and structure binding preferences using deep convolutional and recurrent neural networks(https://bmcgenomics.biomedcentral.com/articles/10.1186/s12864-018-4889-1)
 Branch Point Selection in RNA Splicing Using Deep Learning(https://ieeexplore.ieee.org/document/8574900)
 iRNA-PseKNC(2methyl): Identify RNA 2'-O-methylation sites by convolution neural network and Chou's pseudo components(https://www.sciencedirect.com/science/article/pii/S0022519318306349) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpineNet6mA(2020/11/05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-DNC(2020/09/15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iN6-Methyl(2019/10/15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm6A-CNN(2020/06/17)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -535,16 +535,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
@@ -552,16 +552,16 @@
         <v>44651</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="132" x14ac:dyDescent="0.25">
@@ -572,13 +572,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="264" x14ac:dyDescent="0.25">
@@ -589,13 +589,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="198" x14ac:dyDescent="0.25">
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/paper_implementation_scedule.xlsx
+++ b/paper_implementation_scedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳毓凱\Desktop\碩士\paper_implement\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE6FC10-B2E1-4F37-8D0A-D26A86DFFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>毓凱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,11 +129,24 @@
     <t>iIM-CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Rice(41bp) : 880 positive, 880 negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine learning:
+i6mA-Pred: identifying DNA N6-methyladenine sites in the rice genome(https://academic.oup.com/bioinformatics/article/35/16/2796/5280727?login=true)
+Deep -learning:
+Prediction of RNA-protein sequence and structure binding preferences using deep convolutional and recurrent neural networks(https://bmcgenomics.biomedcentral.com/articles/10.1186/s12864-018-4889-1)
+Branch Point Selection in RNA Splicing Using Deep Learning(https://ieeexplore.ieee.org/document/8574900)
+iRNA-PseKNC(2methyl): Identify RNA 2'-O-methylation sites by convolution neural network and Chou's pseudo components(https://www.sciencedirect.com/science/article/pii/S0022519318306349) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -504,11 +518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -584,7 +598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="198" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44671</v>
       </c>
@@ -593,6 +607,12 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/paper_implementation_scedule.xlsx
+++ b/paper_implementation_scedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper_implement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳毓凱\Desktop\碩士\paper_implement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F846FC87-00DE-4E76-AEDD-FAF23D4B949D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D4F72-BCD1-47CF-B44A-884CCD653576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,88 @@
     <t>Multiple species : H.sapiens:2260(41nt),M.musculus 1450(41nt),S.cerevisiae:2614(51nt)</t>
   </si>
   <si>
-    <t>Machine learning:
+    <t>Multiple species : M. musculus(41bp):1934P 1934N, Rice(41bp):880P 880N, Combined-species (41bp):2768P 2716N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA6mA-MINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDNA6mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iIM-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice(41bp) : 880 positive, 880 negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpineNet6mA(2020/11/05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-DNC(2020/09/15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iN6-Methyl(2019/10/15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm6A-CNN(2020/06/17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Machine learning:
+M6AMRFS(XGBoost),https://www.frontiersin.org/articles/10.3389/fgene.2018.00495/full
+iMRM(XGBoost),https://academic.oup.com/bioinformatics/article/36/11/3336/5781956?login=true
+RFAthM6A(random forest), https://link.springer.com/article/10.1007/s11103-018-0698-9
+Deep-learning:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iN6-Methy(CNN),https://www.sciencedirect.com/science/article/pii/S0169743919300838#bib103</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Machine learning:
+iDNA6mA-PseKNC ,https://pubmed.ncbi.nlm.nih.gov/29360500/
+csDMA,https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6739324/
+6mA-Finder, https://academic.oup.com/bioinformatics/article/36/10/3257/5753942
+Deep-learning:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ilM-CNN(CNN), https://www.researchgate.net/publication/337875993_iIM-CNN_Intelligent_Identifier_of_6mA_Sites_on_Different_Species_by_Using_Convolution_Neural_Network</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Machine learning:
 M6APred-EL(Ensemble Learning),https://www.sciencedirect.com/science/article/pii/S2162253118301446
 RFAthM6A (random forest), https://link.springer.com/article/10.1007/s11103-018-0698-9
 iRNA(m6A)-PseDNC (SVM), https://www.sciencedirect.com/science/article/pii/S0003269715003978
@@ -75,79 +156,48 @@
 M6AMRFS(XGBoost),https://www.frontiersin.org/articles/10.3389/fgene.2018.00495/full
 MethyRNA(SVM),https://www.tandfonline.com/doi/full/10.1080/07391102.2016.1157761
 Deep-learning:
-DeepM6ASeq(lstm+CNN),https://link.springer.com/article/10.1186/s12859-018-2516-4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DeepM6ASeq(lstm+CNN),https://link.springer.com/article/10.1186/s12859-018-2516-4
 BERMP(CNN+RNN),https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6216033/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine learning:
-M6AMRFS(XGBoost),https://www.frontiersin.org/articles/10.3389/fgene.2018.00495/full
-iMRM(XGBoost),https://academic.oup.com/bioinformatics/article/36/11/3336/5781956?login=true
-RFAthM6A(random forest), https://link.springer.com/article/10.1007/s11103-018-0698-9
-Deep-learning:
-iN6-Methy(CNN),https://www.sciencedirect.com/science/article/pii/S0169743919300838#bib103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multiple species : M. musculus(41bp):1934P 1934N, Rice(41bp):880P 880N, Combined-species (41bp):2768P 2716N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine learning:
-iDNA6mA-PseKNC ,https://pubmed.ncbi.nlm.nih.gov/29360500/
-csDMA,https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6739324/
-6mA-Finder, https://academic.oup.com/bioinformatics/article/36/10/3257/5753942
-Deep-learning:
-ilM-CNN(CNN), https://www.researchgate.net/publication/337875993_iIM-CNN_Intelligent_Identifier_of_6mA_Sites_on_Different_Species_by_Using_Convolution_Neural_Network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNA6mA-MINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iDNA6mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iIM-CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice(41bp) : 880 positive, 880 negative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine learning:
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Machine learning:
 i6mA-Pred: identifying DNA N6-methyladenine sites in the rice genome(https://academic.oup.com/bioinformatics/article/35/16/2796/5280727?login=true)
 Deep -learning:
-Prediction of RNA-protein sequence and structure binding preferences using deep convolutional and recurrent neural networks(https://bmcgenomics.biomedcentral.com/articles/10.1186/s12864-018-4889-1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prediction of RNA-protein sequence and structure binding preferences using deep convolutional and recurrent neural networks(https://bmcgenomics.biomedcentral.com/articles/10.1186/s12864-018-4889-1)
 Branch Point Selection in RNA Splicing Using Deep Learning(https://ieeexplore.ieee.org/document/8574900)
 iRNA-PseKNC(2methyl): Identify RNA 2'-O-methylation sites by convolution neural network and Chou's pseudo components(https://www.sciencedirect.com/science/article/pii/S0022519318306349) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpineNet6mA(2020/11/05)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-DNC(2020/09/15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iN6-Methyl(2019/10/15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm6A-CNN(2020/06/17)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +218,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -521,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -555,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -572,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="264" x14ac:dyDescent="0.25">
@@ -589,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -606,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -623,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
